--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasiv\OneDrive\Desktop\SDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1652E7-4ECA-414E-A6C1-3C1FABEA29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E544B4E-3CEA-42A0-A85A-195184FE783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="18000" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -540,6 +540,176 @@
         <v>15.89</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15.83</v>
+      </c>
+      <c r="C12">
+        <v>15.21</v>
+      </c>
+      <c r="D12">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="E12">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15.85</v>
+      </c>
+      <c r="C13">
+        <v>16.37</v>
+      </c>
+      <c r="D13">
+        <v>16.36</v>
+      </c>
+      <c r="E13">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>15.94</v>
+      </c>
+      <c r="C14">
+        <v>16.29</v>
+      </c>
+      <c r="D14">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15.74</v>
+      </c>
+      <c r="C15">
+        <v>16.22</v>
+      </c>
+      <c r="D15">
+        <v>15.6</v>
+      </c>
+      <c r="E15">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16.21</v>
+      </c>
+      <c r="C16">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="D16">
+        <v>16.38</v>
+      </c>
+      <c r="E16">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16.14</v>
+      </c>
+      <c r="C17">
+        <v>15.46</v>
+      </c>
+      <c r="D17">
+        <v>15.66</v>
+      </c>
+      <c r="E17">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C18">
+        <v>16.45</v>
+      </c>
+      <c r="D18">
+        <v>15.71</v>
+      </c>
+      <c r="E18">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>16.02</v>
+      </c>
+      <c r="C19">
+        <v>15.99</v>
+      </c>
+      <c r="D19">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E19">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>15.83</v>
+      </c>
+      <c r="C20">
+        <v>15.74</v>
+      </c>
+      <c r="D20">
+        <v>15.99</v>
+      </c>
+      <c r="E20">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>15.94</v>
+      </c>
+      <c r="C21">
+        <v>16.43</v>
+      </c>
+      <c r="D21">
+        <v>15.21</v>
+      </c>
+      <c r="E21">
+        <v>15.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
